--- a/data_ppl.xlsx
+++ b/data_ppl.xlsx
@@ -1544,10 +1544,10 @@
   </sheetPr>
   <dimension ref="A1:O55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
+      <selection pane="bottomLeft" activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6296296296296" defaultRowHeight="15.75" customHeight="1"/>

--- a/data_ppl.xlsx
+++ b/data_ppl.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="94">
   <si>
     <t>Dấu thời gian</t>
   </si>
@@ -82,7 +82,7 @@
     <t>Tốt</t>
   </si>
   <si>
-    <t xml:space="preserve">Do các kiến thức được học còn mơ hồ chưa hiểu sâu , đề thi có những câu hỏi mang tính trừu tượng không có đáp án cụ thể ở 1 số môn </t>
+    <t>Áp Lực Bởi Các Mối Quan Hệ Xung Quanh</t>
   </si>
   <si>
     <t>VHD</t>
@@ -91,34 +91,22 @@
     <t>Nhiều</t>
   </si>
   <si>
-    <t>kinh tế và học lực</t>
-  </si>
-  <si>
     <t>Hà Thuyết Trình</t>
   </si>
   <si>
     <t>Không</t>
   </si>
   <si>
-    <t>không ngủ đủ giấc</t>
-  </si>
-  <si>
     <t>Trần Vũ Duy</t>
   </si>
   <si>
-    <t>Áp lực thi cử, khối lượng bài tập, áp lực kinh tế gia đình,..</t>
-  </si>
-  <si>
     <t>Nguyễn Đức Nhật</t>
   </si>
   <si>
-    <t>Cơ hội việc làm sau khi tốt nghiệp</t>
-  </si>
-  <si>
     <t xml:space="preserve">Trần Chí Bảo </t>
   </si>
   <si>
-    <t>Tiền</t>
+    <t>Áp Lực Kinh Tế</t>
   </si>
   <si>
     <t>Lê Ưng Minh Trực</t>
@@ -127,76 +115,46 @@
     <t>Rất nhiều</t>
   </si>
   <si>
-    <t xml:space="preserve">Đi học mà nó cứ kêu đi vệ sinh </t>
-  </si>
-  <si>
     <t>Phạm Tấn Đạt</t>
   </si>
   <si>
-    <t>Điểm số và việc làm</t>
-  </si>
-  <si>
     <t>Trần Quốc Huy</t>
   </si>
   <si>
     <t>Rất ít</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Trần Vỹ Khang</t>
   </si>
   <si>
-    <t>Lượng kiến thức nhiều, áp lực thi cử</t>
-  </si>
-  <si>
     <t>Nguyễn Hồng Danh</t>
   </si>
   <si>
-    <t>deadline</t>
-  </si>
-  <si>
     <t>Phí Huỳnh Minh Quân</t>
   </si>
   <si>
+    <t>Nguyễn Văn An</t>
+  </si>
+  <si>
+    <t>Nguyễn Phạm Công Huy</t>
+  </si>
+  <si>
+    <t>Trần Gia Bảo</t>
+  </si>
+  <si>
     <t>Áp lực thi cử</t>
   </si>
   <si>
-    <t>Nguyễn Văn An</t>
-  </si>
-  <si>
-    <t>Nguyễn Phạm Công Huy</t>
-  </si>
-  <si>
-    <t>Bài tập nhiều</t>
-  </si>
-  <si>
-    <t>Trần Gia Bảo</t>
-  </si>
-  <si>
-    <t>Lượng kiến thức quá nhiều và khó hiểu</t>
-  </si>
-  <si>
     <t>Nguyễn Quang Mão</t>
   </si>
   <si>
-    <t>Áp lực thi cử, học tập</t>
-  </si>
-  <si>
     <t>Vũ đức nam</t>
   </si>
   <si>
-    <t>Học ngu</t>
-  </si>
-  <si>
     <t>Trần Thái Huy</t>
   </si>
   <si>
-    <t>Điện</t>
-  </si>
-  <si>
-    <t>Kiến thức khó hiểu, bài tập nhiều</t>
+    <t>Khác</t>
   </si>
   <si>
     <t>Lê Thị Thùy Dương</t>
@@ -205,196 +163,121 @@
     <t>Nữ</t>
   </si>
   <si>
-    <t>Du Lịch</t>
-  </si>
-  <si>
     <t>Ít</t>
   </si>
   <si>
-    <t>Không có</t>
-  </si>
-  <si>
     <t>Trương Khánh Linh</t>
   </si>
   <si>
-    <t>Dược</t>
-  </si>
-  <si>
-    <t>Tương lai sau này sau khi tốt nghiệp</t>
-  </si>
-  <si>
     <t>Lữ Cảnh Hào</t>
   </si>
   <si>
-    <t>Do kiến thức  về ngành khó hiểu và lo sợ việc thi cử</t>
-  </si>
-  <si>
     <t>Hồ Minh Tú</t>
   </si>
   <si>
-    <t>Học Phí Mỗi Kỳ</t>
-  </si>
-  <si>
     <t xml:space="preserve">Trần thị thu hiền </t>
   </si>
   <si>
     <t>Không tốt</t>
   </si>
   <si>
-    <t>Tinh thần , sức khỏe và vấn đề kinh tế</t>
-  </si>
-  <si>
     <t>Ngo Phuc</t>
   </si>
   <si>
-    <t>Khác</t>
-  </si>
-  <si>
     <t>Kinh Tế</t>
   </si>
   <si>
-    <t>...</t>
-  </si>
-  <si>
     <t xml:space="preserve">Nguyễn Tuyết Nhi </t>
   </si>
   <si>
-    <t xml:space="preserve">Ít thời gian học </t>
-  </si>
-  <si>
     <t>Khổng Thuý Vy</t>
   </si>
   <si>
-    <t xml:space="preserve">Deadline dí cùng ngày </t>
-  </si>
-  <si>
     <t xml:space="preserve">Võ Song Tiên </t>
   </si>
   <si>
-    <t>Peer pressure</t>
+    <t>Áp lực từ giảng viên</t>
   </si>
   <si>
     <t>Nguyễn Ngọc Mai Hương</t>
   </si>
   <si>
-    <t>Dl nhiều, môn học bắt buộc nhiều dự án nghiên cứu và phải hoàn thành nhiều dự án trong cùng 1 HK. Việc tìm hiểu và chạy dữ liệu báo cáo mợt mỏi</t>
-  </si>
-  <si>
     <t>Phạm Mai Khuê</t>
   </si>
   <si>
-    <t>Teammates</t>
+    <t>Áp lực việc làm trong tương lai</t>
   </si>
   <si>
     <t>Trần Hà Nam</t>
   </si>
   <si>
-    <t xml:space="preserve">Thời gian đi làm và đi học </t>
-  </si>
-  <si>
     <t>Phạm Thị Thanh Ngân</t>
   </si>
   <si>
-    <t xml:space="preserve">Bài quá nhiều ….. Học có khi dạy 1 đằng cho thi lại 1 hướng khác. </t>
-  </si>
-  <si>
     <t>Hồ Thị Thương</t>
   </si>
   <si>
-    <t>Điểm số</t>
+    <t>Deadline nhiều</t>
   </si>
   <si>
     <t>Phạm Phương Thanh</t>
   </si>
   <si>
-    <t>Điểm số, áp lực đồng trang lứa</t>
-  </si>
-  <si>
     <t>Trần Yến Vy</t>
   </si>
   <si>
     <t>Nguyễn Lan Anh</t>
   </si>
   <si>
-    <t>Bài tập về nhà lúc gần thi cuối kỳ quá nhiều không có thời gian để nghỉ ngơi và thư giản</t>
-  </si>
-  <si>
     <t>Nguyễn Kim Cương</t>
   </si>
   <si>
-    <t>Áp lực từ giảng viên</t>
-  </si>
-  <si>
     <t>Nguyễn Minh Kha</t>
   </si>
   <si>
-    <t>Kinh tế gia đình</t>
-  </si>
-  <si>
     <t>Nguyễn Lê Thanh Uyên</t>
   </si>
   <si>
-    <t>Lượng kiến thức trong chuyên ngành quá nhiều và còn quá mơ hồ do giáo viên truyền đạt</t>
-  </si>
-  <si>
     <t>Phạm Thị Kim Thoa</t>
   </si>
   <si>
-    <t>Lượng kiến thức lớn</t>
-  </si>
-  <si>
     <t>Vũ Thị Nữ Nhi</t>
   </si>
   <si>
-    <t>Áp lực học tập và kinh tế gia đình</t>
-  </si>
-  <si>
     <t>Hoàng Văn Lâm</t>
   </si>
   <si>
     <t xml:space="preserve">Vũ Ngọc Thảo Nhân </t>
   </si>
   <si>
-    <t xml:space="preserve">Điểm số </t>
+    <t>Ðiểm số</t>
   </si>
   <si>
     <t>Hồ Thị Mỹ Hoà</t>
   </si>
   <si>
-    <t>Deadline nhiều</t>
-  </si>
-  <si>
     <t>Nguyễn Thị Thanh Hằng</t>
   </si>
   <si>
     <t>Luật</t>
   </si>
   <si>
-    <t xml:space="preserve">1 phần ở các mối quan hệ xung quanh </t>
-  </si>
-  <si>
     <t xml:space="preserve">Ngô Ánh Phương </t>
   </si>
   <si>
-    <t xml:space="preserve">Do thi Tin học </t>
-  </si>
-  <si>
     <t xml:space="preserve">Huỳnh Vân Anh </t>
   </si>
   <si>
-    <t xml:space="preserve">Sợ rớt môn tốn tiền </t>
-  </si>
-  <si>
     <t>Đỗ Xuân Nghi</t>
   </si>
   <si>
-    <t>Có thể sẽ liên quan đến bài tập và thời hạn nộp bài quá ngắn hoặc lượng kiến thức nạp vào quá nhiều</t>
+    <t>Thời Gian Đi Làm Và Học</t>
   </si>
   <si>
     <t>Võ Trương Khánh Ngân</t>
   </si>
   <si>
-    <t>mình bị stress ở nhiều thứ, học tập là một phần trong những thứ ấy. Nếu nói về học tập thì có thể là do môi trường học, những bạn bè xung quanh học quá đỉnh nên bị áp lực một phần, và cũng có hị áp lực một chút về điểm số nữa.</t>
+    <t>Kiến thức chuyên ngành</t>
   </si>
   <si>
     <t>Trần Đức Thịnh</t>
@@ -406,34 +289,13 @@
     <t>Đỗ Hoàng La Giang</t>
   </si>
   <si>
-    <t>Ngôn Ngữ Anh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Do deadline quá nhiều </t>
-  </si>
-  <si>
     <t>Lê Thị Hoa</t>
   </si>
   <si>
-    <t>không có</t>
-  </si>
-  <si>
     <t>Hà My</t>
   </si>
   <si>
-    <t xml:space="preserve">Truyền Thông </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lượng kiến thức làm em không theo kịp </t>
-  </si>
-  <si>
     <t>Đặng Trần Thanh Tuấn</t>
-  </si>
-  <si>
-    <t>Tự Động Hóa</t>
-  </si>
-  <si>
-    <t>Việc đề thi cuối kỳ khá khó và ảnh hưởng tới điểm tổng kết khá nhiều</t>
   </si>
 </sst>
 </file>
@@ -1062,11 +924,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1542,12 +1407,12 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:O55"/>
+  <dimension ref="A1:O59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="M20" sqref="M20"/>
+      <selection pane="bottomLeft" activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6296296296296" defaultRowHeight="15.75" customHeight="1"/>
@@ -1645,7 +1510,7 @@
       <c r="N2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="O2" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1692,8 +1557,8 @@
       <c r="N3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="O3" s="3" t="s">
-        <v>25</v>
+      <c r="O3" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:15">
@@ -1701,7 +1566,7 @@
         <v>45229.9384721528</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>16</v>
@@ -1716,7 +1581,7 @@
         <v>18</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>19</v>
@@ -1725,13 +1590,13 @@
         <v>19</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M4" s="3" t="s">
         <v>21</v>
@@ -1739,8 +1604,8 @@
       <c r="N4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="O4" s="3" t="s">
-        <v>28</v>
+      <c r="O4" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:15">
@@ -1748,7 +1613,7 @@
         <v>45229.9392729514</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>16</v>
@@ -1786,8 +1651,8 @@
       <c r="N5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="O5" s="3" t="s">
-        <v>30</v>
+      <c r="O5" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:15">
@@ -1795,7 +1660,7 @@
         <v>45229.9394066667</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>16</v>
@@ -1822,7 +1687,7 @@
         <v>19</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L6" s="3" t="s">
         <v>19</v>
@@ -1833,8 +1698,8 @@
       <c r="N6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="O6" s="3" t="s">
-        <v>32</v>
+      <c r="O6" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:15">
@@ -1842,7 +1707,7 @@
         <v>45229.947244456</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>16</v>
@@ -1866,7 +1731,7 @@
         <v>19</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>19</v>
@@ -1880,8 +1745,8 @@
       <c r="N7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="O7" s="3" t="s">
-        <v>34</v>
+      <c r="O7" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:15">
@@ -1889,7 +1754,7 @@
         <v>45229.9564015741</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>16</v>
@@ -1901,10 +1766,10 @@
         <v>17</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>19</v>
@@ -1916,7 +1781,7 @@
         <v>19</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>19</v>
@@ -1927,8 +1792,8 @@
       <c r="N8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>37</v>
+      <c r="O8" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:15">
@@ -1936,7 +1801,7 @@
         <v>45229.9746490972</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>16</v>
@@ -1963,10 +1828,10 @@
         <v>19</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>20</v>
@@ -1974,8 +1839,8 @@
       <c r="N9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>39</v>
+      <c r="O9" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:15">
@@ -1983,7 +1848,7 @@
         <v>45230.0273762847</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>16</v>
@@ -1995,7 +1860,7 @@
         <v>17</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>19</v>
@@ -2021,8 +1886,8 @@
       <c r="N10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>42</v>
+      <c r="O10" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:15">
@@ -2030,7 +1895,7 @@
         <v>45230.2665261574</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>16</v>
@@ -2057,7 +1922,7 @@
         <v>19</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L11" s="3" t="s">
         <v>19</v>
@@ -2068,8 +1933,8 @@
       <c r="N11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="O11" s="3" t="s">
-        <v>44</v>
+      <c r="O11" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:15">
@@ -2077,7 +1942,7 @@
         <v>45230.4123614236</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>16</v>
@@ -2095,7 +1960,7 @@
         <v>19</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>19</v>
@@ -2104,10 +1969,10 @@
         <v>19</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M12" s="3" t="s">
         <v>21</v>
@@ -2115,8 +1980,8 @@
       <c r="N12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="O12" s="3" t="s">
-        <v>46</v>
+      <c r="O12" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:15">
@@ -2124,7 +1989,7 @@
         <v>45230.4193525579</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>16</v>
@@ -2148,10 +2013,10 @@
         <v>19</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L13" s="3" t="s">
         <v>19</v>
@@ -2162,8 +2027,8 @@
       <c r="N13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="O13" s="3" t="s">
-        <v>48</v>
+      <c r="O13" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:15">
@@ -2171,7 +2036,7 @@
         <v>45230.4229702778</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>16</v>
@@ -2195,13 +2060,13 @@
         <v>19</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>20</v>
@@ -2209,8 +2074,8 @@
       <c r="N14" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>48</v>
+      <c r="O14" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:15">
@@ -2218,7 +2083,7 @@
         <v>45230.4250121296</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>16</v>
@@ -2256,8 +2121,8 @@
       <c r="N15" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>51</v>
+      <c r="O15" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:15">
@@ -2265,7 +2130,7 @@
         <v>45230.4263520949</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>16</v>
@@ -2295,7 +2160,7 @@
         <v>19</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M16" s="3" t="s">
         <v>21</v>
@@ -2303,8 +2168,8 @@
       <c r="N16" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="O16" s="3" t="s">
-        <v>53</v>
+      <c r="O16" s="4" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:15">
@@ -2312,7 +2177,7 @@
         <v>45230.4283513426</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>16</v>
@@ -2336,13 +2201,13 @@
         <v>19</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M17" s="3" t="s">
         <v>21</v>
@@ -2350,8 +2215,8 @@
       <c r="N17" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>55</v>
+      <c r="O17" s="4" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:15">
@@ -2359,7 +2224,7 @@
         <v>45230.4333438079</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>16</v>
@@ -2397,8 +2262,8 @@
       <c r="N18" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>57</v>
+      <c r="O18" s="4" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:15">
@@ -2406,7 +2271,7 @@
         <v>45230.4091798495</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>16</v>
@@ -2415,7 +2280,7 @@
         <v>20</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>18</v>
@@ -2430,13 +2295,13 @@
         <v>19</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M19" s="3" t="s">
         <v>20</v>
@@ -2444,8 +2309,8 @@
       <c r="N19" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="O19" s="3" t="s">
-        <v>60</v>
+      <c r="O19" s="4" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:15">
@@ -2453,37 +2318,37 @@
         <v>45230.4217150694</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="D20" s="3">
         <v>20</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>21</v>
@@ -2491,8 +2356,8 @@
       <c r="N20" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>65</v>
+      <c r="O20" s="4" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:15">
@@ -2500,16 +2365,16 @@
         <v>45230.4221547569</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="D21" s="3">
         <v>20</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>24</v>
@@ -2538,8 +2403,8 @@
       <c r="N21" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>68</v>
+      <c r="O21" s="4" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:15">
@@ -2547,7 +2412,7 @@
         <v>45230.4251757407</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>16</v>
@@ -2556,7 +2421,7 @@
         <v>20</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>18</v>
@@ -2577,7 +2442,7 @@
         <v>19</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>20</v>
@@ -2585,8 +2450,8 @@
       <c r="N22" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>70</v>
+      <c r="O22" s="4" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:15">
@@ -2594,7 +2459,7 @@
         <v>45230.428383912</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>16</v>
@@ -2603,7 +2468,7 @@
         <v>20</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>18</v>
@@ -2632,8 +2497,8 @@
       <c r="N23" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>72</v>
+      <c r="O23" s="4" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:15">
@@ -2641,19 +2506,19 @@
         <v>45230.3399251389</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="D24" s="3">
         <v>20</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>19</v>
@@ -2665,10 +2530,10 @@
         <v>19</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>19</v>
@@ -2677,10 +2542,10 @@
         <v>20</v>
       </c>
       <c r="N24" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="O24" s="3" t="s">
-        <v>75</v>
+        <v>54</v>
+      </c>
+      <c r="O24" s="4" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:15">
@@ -2688,46 +2553,46 @@
         <v>45229.9376214583</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="D25" s="3">
         <v>23</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M25" s="3" t="s">
         <v>21</v>
       </c>
       <c r="N25" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="O25" s="3" t="s">
-        <v>79</v>
+        <v>54</v>
+      </c>
+      <c r="O25" s="4" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:15">
@@ -2735,34 +2600,34 @@
         <v>45229.9480042477</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="D26" s="3">
         <v>21</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>19</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>19</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L26" s="3" t="s">
         <v>19</v>
@@ -2773,8 +2638,8 @@
       <c r="N26" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>81</v>
+      <c r="O26" s="4" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:15">
@@ -2782,16 +2647,16 @@
         <v>45229.9552495139</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="D27" s="3">
         <v>20</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>18</v>
@@ -2803,13 +2668,13 @@
         <v>19</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L27" s="3" t="s">
         <v>19</v>
@@ -2820,8 +2685,8 @@
       <c r="N27" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>83</v>
+      <c r="O27" s="4" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:15">
@@ -2829,16 +2694,16 @@
         <v>45229.9566685995</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="D28" s="3">
         <v>20</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>18</v>
@@ -2847,19 +2712,19 @@
         <v>19</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I28" s="3" t="s">
         <v>19</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M28" s="3" t="s">
         <v>21</v>
@@ -2867,8 +2732,8 @@
       <c r="N28" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="O28" s="3" t="s">
-        <v>85</v>
+      <c r="O28" s="4" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:15">
@@ -2876,16 +2741,16 @@
         <v>45229.9567899306</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="D29" s="3">
         <v>20</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>24</v>
@@ -2900,13 +2765,13 @@
         <v>19</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>19</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>21</v>
@@ -2914,8 +2779,8 @@
       <c r="N29" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>87</v>
+      <c r="O29" s="4" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:15">
@@ -2923,16 +2788,16 @@
         <v>45229.9592846528</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="D30" s="3">
         <v>20</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>18</v>
@@ -2947,10 +2812,10 @@
         <v>19</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L30" s="3" t="s">
         <v>19</v>
@@ -2961,8 +2826,8 @@
       <c r="N30" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="O30" s="3" t="s">
-        <v>89</v>
+      <c r="O30" s="4" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="1:15">
@@ -2970,7 +2835,7 @@
         <v>45229.9782342824</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>16</v>
@@ -2979,7 +2844,7 @@
         <v>21</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>24</v>
@@ -2994,13 +2859,13 @@
         <v>19</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M31" s="3" t="s">
         <v>21</v>
@@ -3008,8 +2873,8 @@
       <c r="N31" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="O31" s="3" t="s">
-        <v>91</v>
+      <c r="O31" s="4" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:15">
@@ -3017,19 +2882,19 @@
         <v>45229.9826453472</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="D32" s="3">
         <v>21</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>19</v>
@@ -3053,10 +2918,10 @@
         <v>21</v>
       </c>
       <c r="N32" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="O32" s="3" t="s">
-        <v>93</v>
+        <v>54</v>
+      </c>
+      <c r="O32" s="4" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:15">
@@ -3064,16 +2929,16 @@
         <v>45230.0025664005</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="D33" s="3">
         <v>20</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>18</v>
@@ -3102,8 +2967,8 @@
       <c r="N33" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>95</v>
+      <c r="O33" s="4" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:15">
@@ -3111,16 +2976,16 @@
         <v>45230.0326126505</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="D34" s="3">
         <v>19</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>18</v>
@@ -3141,7 +3006,7 @@
         <v>19</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M34" s="3" t="s">
         <v>20</v>
@@ -3149,8 +3014,8 @@
       <c r="N34" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="O34" s="3" t="s">
-        <v>97</v>
+      <c r="O34" s="4" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:15">
@@ -3158,16 +3023,16 @@
         <v>45230.4080415394</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="D35" s="3">
         <v>20</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>18</v>
@@ -3196,8 +3061,8 @@
       <c r="N35" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>42</v>
+      <c r="O35" s="4" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:15">
@@ -3205,16 +3070,16 @@
         <v>45230.4197287268</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="D36" s="3">
         <v>20</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>18</v>
@@ -3223,7 +3088,7 @@
         <v>19</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I36" s="3" t="s">
         <v>19</v>
@@ -3243,8 +3108,8 @@
       <c r="N36" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="O36" s="3" t="s">
-        <v>100</v>
+      <c r="O36" s="4" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:15">
@@ -3252,16 +3117,16 @@
         <v>45230.4203353819</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="D37" s="3">
         <v>19</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>24</v>
@@ -3270,7 +3135,7 @@
         <v>19</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I37" s="3" t="s">
         <v>19</v>
@@ -3282,16 +3147,16 @@
         <v>19</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M37" s="3" t="s">
         <v>20</v>
       </c>
       <c r="N37" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="O37" s="3" t="s">
-        <v>102</v>
+        <v>54</v>
+      </c>
+      <c r="O37" s="4" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:15">
@@ -3299,7 +3164,7 @@
         <v>45230.4224347338</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>16</v>
@@ -3308,7 +3173,7 @@
         <v>19</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>24</v>
@@ -3337,8 +3202,8 @@
       <c r="N38" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="O38" s="3" t="s">
-        <v>104</v>
+      <c r="O38" s="4" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="1:15">
@@ -3346,16 +3211,16 @@
         <v>45230.4232277315</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="D39" s="3">
         <v>20</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>18</v>
@@ -3376,7 +3241,7 @@
         <v>19</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M39" s="3" t="s">
         <v>21</v>
@@ -3384,8 +3249,8 @@
       <c r="N39" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="O39" s="3" t="s">
-        <v>106</v>
+      <c r="O39" s="4" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="1:15">
@@ -3393,16 +3258,16 @@
         <v>45230.4236626389</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="D40" s="3">
         <v>19</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>24</v>
@@ -3411,7 +3276,7 @@
         <v>19</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I40" s="3" t="s">
         <v>19</v>
@@ -3423,7 +3288,7 @@
         <v>19</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M40" s="3" t="s">
         <v>21</v>
@@ -3431,8 +3296,8 @@
       <c r="N40" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="O40" s="3" t="s">
-        <v>108</v>
+      <c r="O40" s="4" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="1:15">
@@ -3440,16 +3305,16 @@
         <v>45230.4270750347</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="D41" s="3">
         <v>21</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>24</v>
@@ -3478,8 +3343,8 @@
       <c r="N41" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>110</v>
+      <c r="O41" s="4" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="1:15">
@@ -3487,7 +3352,7 @@
         <v>45230.4276810532</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>16</v>
@@ -3496,28 +3361,28 @@
         <v>19</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M42" s="3" t="s">
         <v>20</v>
@@ -3525,8 +3390,8 @@
       <c r="N42" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>65</v>
+      <c r="O42" s="4" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="1:15">
@@ -3534,16 +3399,16 @@
         <v>45230.4278613773</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>112</v>
+        <v>77</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="D43" s="3">
         <v>20</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>18</v>
@@ -3572,8 +3437,8 @@
       <c r="N43" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>113</v>
+      <c r="O43" s="4" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="1:15">
@@ -3581,16 +3446,16 @@
         <v>45230.4715354514</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="D44" s="3">
         <v>20</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>18</v>
@@ -3599,19 +3464,19 @@
         <v>19</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>19</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L44" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M44" s="3" t="s">
         <v>21</v>
@@ -3619,8 +3484,8 @@
       <c r="N44" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>115</v>
+      <c r="O44" s="4" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="1:15">
@@ -3628,16 +3493,16 @@
         <v>45229.9408518634</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>116</v>
+        <v>80</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="D45" s="3">
         <v>19</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>117</v>
+        <v>81</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>18</v>
@@ -3646,16 +3511,16 @@
         <v>19</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L45" s="3" t="s">
         <v>19</v>
@@ -3666,8 +3531,8 @@
       <c r="N45" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>118</v>
+      <c r="O45" s="4" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="1:15">
@@ -3675,16 +3540,16 @@
         <v>45229.9413227199</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>119</v>
+        <v>82</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="D46" s="3">
         <v>19</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>117</v>
+        <v>81</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>24</v>
@@ -3702,7 +3567,7 @@
         <v>19</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L46" s="3" t="s">
         <v>19</v>
@@ -3713,8 +3578,8 @@
       <c r="N46" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>120</v>
+      <c r="O46" s="4" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="1:15">
@@ -3722,19 +3587,19 @@
         <v>45229.9493029745</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>121</v>
+        <v>83</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="D47" s="3">
         <v>20</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>117</v>
+        <v>81</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>19</v>
@@ -3760,8 +3625,8 @@
       <c r="N47" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>122</v>
+      <c r="O47" s="4" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="48" customHeight="1" spans="1:15">
@@ -3769,16 +3634,16 @@
         <v>45229.954905544</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>123</v>
+        <v>84</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="D48" s="3">
         <v>20</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>117</v>
+        <v>81</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>18</v>
@@ -3796,7 +3661,7 @@
         <v>19</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>19</v>
@@ -3807,8 +3672,8 @@
       <c r="N48" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>124</v>
+      <c r="O48" s="4" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="1:15">
@@ -3816,16 +3681,16 @@
         <v>45230.0075826157</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>125</v>
+        <v>86</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="D49" s="3">
         <v>20</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>117</v>
+        <v>81</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>24</v>
@@ -3840,13 +3705,13 @@
         <v>19</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L49" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M49" s="3" t="s">
         <v>21</v>
@@ -3854,8 +3719,8 @@
       <c r="N49" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>126</v>
+      <c r="O49" s="4" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="1:15">
@@ -3863,7 +3728,7 @@
         <v>45230.4210618866</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>127</v>
+        <v>88</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>16</v>
@@ -3872,25 +3737,25 @@
         <v>21</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>117</v>
+        <v>81</v>
       </c>
       <c r="F50" s="3" t="s">
         <v>18</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H50" s="3" t="s">
         <v>19</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L50" s="3" t="s">
         <v>19</v>
@@ -3901,8 +3766,8 @@
       <c r="N50" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="O50" s="3" t="s">
-        <v>108</v>
+      <c r="O50" s="4" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="51" customHeight="1" spans="1:15">
@@ -3910,7 +3775,7 @@
         <v>45230.4244262847</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>128</v>
+        <v>89</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>16</v>
@@ -3919,25 +3784,25 @@
         <v>21</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>117</v>
+        <v>81</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>18</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H51" s="3" t="s">
         <v>19</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L51" s="3" t="s">
         <v>19</v>
@@ -3948,8 +3813,8 @@
       <c r="N51" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="O51" s="3" t="s">
-        <v>102</v>
+      <c r="O51" s="4" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="1:15">
@@ -3957,16 +3822,16 @@
         <v>45230.4238720718</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>129</v>
+        <v>90</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="D52" s="3">
         <v>20</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>130</v>
+        <v>46</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>18</v>
@@ -3987,7 +3852,7 @@
         <v>19</v>
       </c>
       <c r="L52" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>20</v>
@@ -3995,8 +3860,8 @@
       <c r="N52" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>131</v>
+      <c r="O52" s="4" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="53" customHeight="1" spans="1:15">
@@ -4004,37 +3869,37 @@
         <v>45230.4262216667</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>132</v>
+        <v>91</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="D53" s="3">
         <v>20</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>130</v>
+        <v>46</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L53" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M53" s="3" t="s">
         <v>21</v>
@@ -4042,8 +3907,8 @@
       <c r="N53" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="O53" s="3" t="s">
-        <v>133</v>
+      <c r="O53" s="4" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="54" customHeight="1" spans="1:15">
@@ -4051,19 +3916,19 @@
         <v>45229.9810084838</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>134</v>
+        <v>92</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="D54" s="3">
         <v>19</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>135</v>
+        <v>46</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>19</v>
@@ -4089,8 +3954,8 @@
       <c r="N54" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>136</v>
+      <c r="O54" s="4" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="55" customHeight="1" spans="1:15">
@@ -4098,7 +3963,7 @@
         <v>45230.4179293171</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>137</v>
+        <v>93</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>16</v>
@@ -4107,10 +3972,10 @@
         <v>20</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>138</v>
+        <v>46</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G55" s="3" t="s">
         <v>19</v>
@@ -4136,9 +4001,21 @@
       <c r="N55" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="O55" s="3" t="s">
-        <v>139</v>
-      </c>
+      <c r="O55" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="56" customHeight="1" spans="15:15">
+      <c r="O56" s="4"/>
+    </row>
+    <row r="57" customHeight="1" spans="15:15">
+      <c r="O57" s="4"/>
+    </row>
+    <row r="58" customHeight="1" spans="15:15">
+      <c r="O58" s="4"/>
+    </row>
+    <row r="59" customHeight="1" spans="15:15">
+      <c r="O59" s="4"/>
     </row>
   </sheetData>
   <sortState ref="A2:O55">
